--- a/players.xlsx
+++ b/players.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="210" windowWidth="19395" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="216" windowWidth="19392" windowHeight="7716" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="투수" sheetId="2" r:id="rId1"/>
@@ -2228,102 +2228,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L97"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="1" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>2.68</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3">
+        <v>2.98</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4">
+        <v>3.79</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5">
+        <v>4.32</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>2.68</v>
+        <v>3.85</v>
       </c>
       <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -2338,182 +2489,182 @@
         <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>2.98</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H8">
-        <v>3.79</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L8">
-        <v>9.4600000000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>4.32</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>100</v>
       </c>
       <c r="H10">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>86</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>4.3499999999999996</v>
+        <v>1.64</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>86</v>
@@ -2525,33 +2676,33 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12">
-        <v>2.3199999999999998</v>
+        <v>4.54</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
       <c r="K12">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -2563,71 +2714,71 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13">
-        <v>4.2300000000000004</v>
+        <v>3.54</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="H14">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
@@ -2636,156 +2787,156 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="H15">
-        <v>1.64</v>
+        <v>3.49</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="H16">
-        <v>4.54</v>
+        <v>4.24</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="H17">
-        <v>3.54</v>
+        <v>4.28</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
         <v>86</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>311</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H18">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L18">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
         <v>86</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>311</v>
@@ -2794,220 +2945,220 @@
         <v>271</v>
       </c>
       <c r="G19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H19">
-        <v>3.49</v>
+        <v>3.12</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>311</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H20">
-        <v>4.24</v>
+        <v>2.98</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>311</v>
       </c>
       <c r="F21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H21">
-        <v>4.28</v>
+        <v>3.68</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="D22">
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
         <v>272</v>
       </c>
       <c r="G22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H22">
-        <v>2.75</v>
+        <v>4.37</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
         <v>271</v>
       </c>
       <c r="G23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H23">
-        <v>3.12</v>
+        <v>4.2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F24" t="s">
         <v>272</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H24">
-        <v>2.98</v>
+        <v>1.5</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L24">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
         <v>310</v>
@@ -3016,16 +3167,16 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H25">
-        <v>3.68</v>
+        <v>2.04</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -3034,39 +3185,39 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="L25">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
         <v>310</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>335</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
         <v>312</v>
       </c>
       <c r="H26">
-        <v>4.37</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -3075,21 +3226,21 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
         <v>310</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>335</v>
@@ -3098,13 +3249,13 @@
         <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="H27">
-        <v>4.2</v>
+        <v>2.89</v>
       </c>
       <c r="I27">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -3113,59 +3264,59 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C28" t="s">
         <v>310</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
         <v>335</v>
       </c>
       <c r="F28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="H28">
-        <v>1.5</v>
+        <v>3.15</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B29" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
         <v>310</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>335</v>
@@ -3174,36 +3325,36 @@
         <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="H29">
-        <v>2.04</v>
+        <v>3.85</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>36</v>
-      </c>
-      <c r="L29">
-        <v>8.26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
         <v>310</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
         <v>335</v>
@@ -3212,36 +3363,36 @@
         <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="H30">
-        <v>4.7300000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
         <v>310</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
         <v>335</v>
@@ -3250,30 +3401,30 @@
         <v>271</v>
       </c>
       <c r="G31" t="s">
-        <v>337</v>
+        <v>97</v>
       </c>
       <c r="H31">
-        <v>2.89</v>
+        <v>3.46</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C32" t="s">
         <v>310</v>
@@ -3282,194 +3433,194 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H32">
-        <v>3.15</v>
+        <v>4.97</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
         <v>310</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="H33">
-        <v>3.85</v>
+        <v>4.66</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C34" t="s">
         <v>310</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="F34" t="s">
         <v>271</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="H34">
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C35" t="s">
         <v>310</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="H35">
-        <v>3.46</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
         <v>6</v>
       </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="C36" t="s">
         <v>310</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="F36" t="s">
         <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H36">
-        <v>4.97</v>
+        <v>3.85</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C37" t="s">
         <v>310</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
         <v>367</v>
@@ -3481,33 +3632,33 @@
         <v>312</v>
       </c>
       <c r="H37">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="I37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C38" t="s">
         <v>310</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
         <v>367</v>
@@ -3516,74 +3667,74 @@
         <v>271</v>
       </c>
       <c r="G38" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="H38">
-        <v>3.42</v>
+        <v>2.99</v>
       </c>
       <c r="I38">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L38">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C39" t="s">
         <v>310</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
         <v>367</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="H39">
-        <v>4.1100000000000003</v>
+        <v>3.16</v>
       </c>
       <c r="I39">
         <v>3</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C40" t="s">
         <v>310</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>367</v>
@@ -3592,36 +3743,36 @@
         <v>272</v>
       </c>
       <c r="G40" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H40">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
         <v>310</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>367</v>
@@ -3630,74 +3781,74 @@
         <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H41">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="I41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C42" t="s">
         <v>310</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
         <v>367</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G42" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="H42">
-        <v>2.99</v>
+        <v>3.96</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
         <v>310</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
         <v>367</v>
@@ -3709,27 +3860,27 @@
         <v>314</v>
       </c>
       <c r="H43">
-        <v>3.16</v>
+        <v>2.65</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s">
         <v>310</v>
@@ -3741,241 +3892,241 @@
         <v>367</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G44" t="s">
         <v>314</v>
       </c>
       <c r="H44">
-        <v>3.54</v>
+        <v>2.44</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C45" t="s">
         <v>310</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
         <v>367</v>
       </c>
       <c r="F45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G45" t="s">
         <v>314</v>
       </c>
       <c r="H45">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C46" t="s">
         <v>310</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>367</v>
       </c>
       <c r="F46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G46" t="s">
         <v>314</v>
       </c>
       <c r="H46">
-        <v>3.96</v>
+        <v>2.65</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C47" t="s">
         <v>310</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="F47" t="s">
         <v>271</v>
       </c>
       <c r="G47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H47">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C48" t="s">
         <v>310</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="F48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H48">
-        <v>2.44</v>
+        <v>1.66</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C49" t="s">
         <v>310</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H49">
-        <v>2.38</v>
+        <v>3.89</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C50" t="s">
         <v>310</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G50" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="H50">
-        <v>2.65</v>
+        <v>4.75</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -3984,24 +4135,24 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L50">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C51" t="s">
         <v>310</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>397</v>
@@ -4013,33 +4164,33 @@
         <v>312</v>
       </c>
       <c r="H51">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="I51">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s">
         <v>310</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
         <v>397</v>
@@ -4048,36 +4199,36 @@
         <v>272</v>
       </c>
       <c r="G52" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H52">
-        <v>1.66</v>
+        <v>3.53</v>
       </c>
       <c r="I52">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C53" t="s">
         <v>310</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
         <v>397</v>
@@ -4086,74 +4237,74 @@
         <v>271</v>
       </c>
       <c r="G53" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H53">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
         <v>310</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
         <v>397</v>
       </c>
       <c r="F54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G54" t="s">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="H54">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K54">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C55" t="s">
         <v>310</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
         <v>397</v>
@@ -4162,36 +4313,36 @@
         <v>271</v>
       </c>
       <c r="G55" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H55">
-        <v>4.13</v>
+        <v>3.41</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
         <v>310</v>
       </c>
       <c r="D56">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
         <v>397</v>
@@ -4203,33 +4354,33 @@
         <v>314</v>
       </c>
       <c r="H56">
-        <v>3.53</v>
+        <v>3.49</v>
       </c>
       <c r="I56">
         <v>4</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>8.26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C57" t="s">
         <v>310</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
         <v>397</v>
@@ -4241,33 +4392,33 @@
         <v>314</v>
       </c>
       <c r="H57">
-        <v>3.74</v>
+        <v>3.53</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
       <c r="L57">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C58" t="s">
         <v>310</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
         <v>397</v>
@@ -4279,33 +4430,33 @@
         <v>314</v>
       </c>
       <c r="H58">
-        <v>3.85</v>
+        <v>2.85</v>
       </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
         <v>3</v>
       </c>
-      <c r="J58">
-        <v>5</v>
-      </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C59" t="s">
         <v>310</v>
       </c>
       <c r="D59">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
         <v>397</v>
@@ -4317,33 +4468,33 @@
         <v>314</v>
       </c>
       <c r="H59">
-        <v>3.41</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>8.26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C60" t="s">
         <v>310</v>
       </c>
       <c r="D60">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
         <v>397</v>
@@ -4355,65 +4506,65 @@
         <v>314</v>
       </c>
       <c r="H60">
-        <v>3.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
         <v>310</v>
       </c>
       <c r="D61">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="F61" t="s">
         <v>271</v>
       </c>
       <c r="G61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H61">
-        <v>3.53</v>
+        <v>2.54</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C62" t="s">
         <v>310</v>
@@ -4422,118 +4573,118 @@
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="F62" t="s">
         <v>271</v>
       </c>
       <c r="G62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H62">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C63" t="s">
         <v>310</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="F63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H63">
-        <v>2.4700000000000002</v>
+        <v>3.24</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
         <v>310</v>
       </c>
       <c r="D64">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="F64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H64">
-        <v>2.4900000000000002</v>
+        <v>4.16</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C65" t="s">
         <v>310</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E65" t="s">
         <v>427</v>
@@ -4542,74 +4693,74 @@
         <v>271</v>
       </c>
       <c r="G65" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H65">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="I65">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L65">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C66" t="s">
         <v>310</v>
       </c>
       <c r="D66">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
         <v>427</v>
       </c>
       <c r="F66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G66" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H66">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
       <c r="I66">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>11.48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B67" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
         <v>310</v>
       </c>
       <c r="D67">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
         <v>427</v>
@@ -4618,36 +4769,36 @@
         <v>272</v>
       </c>
       <c r="G67" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H67">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="I67">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C68" t="s">
         <v>310</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s">
         <v>427</v>
@@ -4656,74 +4807,74 @@
         <v>271</v>
       </c>
       <c r="G68" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H68">
-        <v>4.16</v>
+        <v>3.34</v>
       </c>
       <c r="I68">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B69" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s">
         <v>310</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
         <v>427</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H69">
-        <v>1.85</v>
+        <v>3.63</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K69">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C70" t="s">
         <v>310</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
         <v>427</v>
@@ -4732,13 +4883,13 @@
         <v>272</v>
       </c>
       <c r="G70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H70">
-        <v>2.14</v>
+        <v>3.51</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4747,59 +4898,59 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C71" t="s">
         <v>310</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
         <v>427</v>
       </c>
       <c r="F71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G71" t="s">
         <v>314</v>
       </c>
       <c r="H71">
-        <v>2.95</v>
+        <v>2.23</v>
       </c>
       <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>3</v>
       </c>
-      <c r="J71">
-        <v>4</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
       <c r="L71">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C72" t="s">
         <v>310</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E72" t="s">
         <v>427</v>
@@ -4811,33 +4962,33 @@
         <v>314</v>
       </c>
       <c r="H72">
-        <v>3.34</v>
+        <v>2.46</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B73" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C73" t="s">
         <v>310</v>
       </c>
       <c r="D73">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
         <v>427</v>
@@ -4849,141 +5000,141 @@
         <v>314</v>
       </c>
       <c r="H73">
-        <v>3.63</v>
+        <v>2.85</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B74" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C74" t="s">
         <v>310</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
         <v>427</v>
       </c>
       <c r="F74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H74">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B75" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C75" t="s">
         <v>310</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="F75" t="s">
         <v>271</v>
       </c>
       <c r="G75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H75">
-        <v>2.23</v>
+        <v>1.77</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B76" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C76" t="s">
         <v>310</v>
       </c>
       <c r="D76">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="F76" t="s">
         <v>271</v>
       </c>
       <c r="G76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H76">
-        <v>2.46</v>
+        <v>3.46</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C77" t="s">
         <v>310</v>
@@ -4992,118 +5143,118 @@
         <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="F77" t="s">
         <v>272</v>
       </c>
       <c r="G77" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H77">
-        <v>2.85</v>
+        <v>3.95</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C78" t="s">
         <v>310</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
       <c r="F78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H78">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C79" t="s">
         <v>310</v>
       </c>
       <c r="D79">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
         <v>270</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H79">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="I79">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L79">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="B80" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C80" t="s">
         <v>310</v>
       </c>
       <c r="D80">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
         <v>270</v>
@@ -5112,36 +5263,36 @@
         <v>271</v>
       </c>
       <c r="G80" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H80">
-        <v>3.46</v>
+        <v>2.31</v>
       </c>
       <c r="I80">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J80">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C81" t="s">
         <v>310</v>
       </c>
       <c r="D81">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
         <v>270</v>
@@ -5150,74 +5301,74 @@
         <v>272</v>
       </c>
       <c r="G81" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H81">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I81">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J81">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>283</v>
+        <v>439</v>
       </c>
       <c r="B82" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s">
         <v>310</v>
       </c>
       <c r="D82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
         <v>270</v>
       </c>
       <c r="F82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G82" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H82">
-        <v>3.34</v>
+        <v>3.16</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B83" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s">
         <v>310</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
         <v>270</v>
@@ -5226,36 +5377,36 @@
         <v>272</v>
       </c>
       <c r="G83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H83">
-        <v>1.67</v>
+        <v>3.43</v>
       </c>
       <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
         <v>6</v>
       </c>
-      <c r="J83">
-        <v>4</v>
-      </c>
       <c r="K83">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>12.16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B84" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C84" t="s">
         <v>310</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
         <v>270</v>
@@ -5267,141 +5418,141 @@
         <v>314</v>
       </c>
       <c r="H84">
-        <v>2.31</v>
+        <v>3.03</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="B85" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C85" t="s">
         <v>310</v>
       </c>
       <c r="D85">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E85" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F85" t="s">
         <v>272</v>
       </c>
       <c r="G85" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H85">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B86" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C86" t="s">
         <v>310</v>
       </c>
       <c r="D86">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F86" t="s">
         <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H86">
-        <v>3.16</v>
+        <v>2.62</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="B87" t="s">
-        <v>442</v>
+        <v>289</v>
       </c>
       <c r="C87" t="s">
         <v>310</v>
       </c>
       <c r="D87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H87">
-        <v>3.43</v>
+        <v>5.93</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B88" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
         <v>310</v>
@@ -5410,42 +5561,42 @@
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G88" t="s">
         <v>314</v>
       </c>
       <c r="H88">
-        <v>3.03</v>
+        <v>4.68</v>
       </c>
       <c r="I88">
         <v>3</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B89" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C89" t="s">
         <v>310</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
         <v>291</v>
@@ -5454,36 +5605,36 @@
         <v>272</v>
       </c>
       <c r="G89" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H89">
-        <v>4.51</v>
+        <v>3.85</v>
       </c>
       <c r="I89">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>7.36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B90" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C90" t="s">
         <v>310</v>
       </c>
       <c r="D90">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
         <v>291</v>
@@ -5492,36 +5643,36 @@
         <v>271</v>
       </c>
       <c r="G90" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="H90">
-        <v>2.62</v>
+        <v>1.63</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L90">
-        <v>8.27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>456</v>
       </c>
       <c r="C91" t="s">
         <v>310</v>
       </c>
       <c r="D91">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
         <v>291</v>
@@ -5530,36 +5681,36 @@
         <v>271</v>
       </c>
       <c r="G91" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H91">
-        <v>5.93</v>
+        <v>4.16</v>
       </c>
       <c r="I91">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B92" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C92" t="s">
         <v>310</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E92" t="s">
         <v>291</v>
@@ -5568,211 +5719,59 @@
         <v>272</v>
       </c>
       <c r="G92" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="H92">
-        <v>4.68</v>
+        <v>3.85</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>7</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B93" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C93" t="s">
         <v>310</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
         <v>291</v>
       </c>
       <c r="F93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G93" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="H93">
-        <v>3.85</v>
+        <v>2.76</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>453</v>
-      </c>
-      <c r="B94" t="s">
-        <v>454</v>
-      </c>
-      <c r="C94" t="s">
-        <v>310</v>
-      </c>
-      <c r="D94">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s">
-        <v>291</v>
-      </c>
-      <c r="F94" t="s">
-        <v>271</v>
-      </c>
-      <c r="G94" t="s">
-        <v>369</v>
-      </c>
-      <c r="H94">
-        <v>1.63</v>
-      </c>
-      <c r="I94">
-        <v>4</v>
-      </c>
-      <c r="J94">
-        <v>4</v>
-      </c>
-      <c r="K94">
-        <v>33</v>
-      </c>
-      <c r="L94">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>455</v>
-      </c>
-      <c r="B95" t="s">
-        <v>456</v>
-      </c>
-      <c r="C95" t="s">
-        <v>310</v>
-      </c>
-      <c r="D95">
-        <v>35</v>
-      </c>
-      <c r="E95" t="s">
-        <v>291</v>
-      </c>
-      <c r="F95" t="s">
-        <v>271</v>
-      </c>
-      <c r="G95" t="s">
-        <v>314</v>
-      </c>
-      <c r="H95">
-        <v>4.16</v>
-      </c>
-      <c r="I95">
-        <v>3</v>
-      </c>
-      <c r="J95">
-        <v>3</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>457</v>
-      </c>
-      <c r="B96" t="s">
-        <v>458</v>
-      </c>
-      <c r="C96" t="s">
-        <v>310</v>
-      </c>
-      <c r="D96">
-        <v>27</v>
-      </c>
-      <c r="E96" t="s">
-        <v>291</v>
-      </c>
-      <c r="F96" t="s">
-        <v>272</v>
-      </c>
-      <c r="G96" t="s">
-        <v>338</v>
-      </c>
-      <c r="H96">
-        <v>3.85</v>
-      </c>
-      <c r="I96">
-        <v>2</v>
-      </c>
-      <c r="J96">
-        <v>7</v>
-      </c>
-      <c r="K96">
-        <v>2</v>
-      </c>
-      <c r="L96">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>459</v>
-      </c>
-      <c r="B97" t="s">
-        <v>460</v>
-      </c>
-      <c r="C97" t="s">
-        <v>310</v>
-      </c>
-      <c r="D97">
-        <v>29</v>
-      </c>
-      <c r="E97" t="s">
-        <v>291</v>
-      </c>
-      <c r="F97" t="s">
-        <v>271</v>
-      </c>
-      <c r="G97" t="s">
-        <v>338</v>
-      </c>
-      <c r="H97">
-        <v>2.76</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -5785,58 +5784,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:K102"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>117</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>0.248</v>
+      </c>
+      <c r="H3">
+        <v>0.375</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>86</v>
+      </c>
+      <c r="K3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <v>0.312</v>
+      </c>
+      <c r="H4">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>0.245</v>
+      </c>
+      <c r="H5">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>82</v>
+      </c>
+      <c r="K5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.379</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>26</v>
@@ -5845,71 +6054,71 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>0.28599999999999998</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="H8">
-        <v>0.35899999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="I8">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9">
-        <v>0.248</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H9">
-        <v>0.375</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I9">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -5918,33 +6127,33 @@
         <v>74</v>
       </c>
       <c r="G10">
-        <v>0.312</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="H10">
-        <v>0.41299999999999998</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -5953,68 +6162,68 @@
         <v>75</v>
       </c>
       <c r="G11">
-        <v>0.245</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H11">
-        <v>0.32400000000000001</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I11">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>0.26700000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H12">
-        <v>0.36299999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
       <c r="K12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -6023,33 +6232,33 @@
         <v>75</v>
       </c>
       <c r="G13">
-        <v>0.26400000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="H13">
-        <v>0.379</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -6061,65 +6270,65 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="H14">
-        <v>0.38600000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>0.26800000000000002</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H15">
-        <v>0.36499999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -6128,68 +6337,68 @@
         <v>74</v>
       </c>
       <c r="G16">
-        <v>0.27800000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H16">
-        <v>0.34200000000000003</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17">
-        <v>0.26500000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="H17">
-        <v>0.35199999999999998</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -6198,33 +6407,33 @@
         <v>75</v>
       </c>
       <c r="G18">
-        <v>0.26300000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="H18">
-        <v>0.36199999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -6233,68 +6442,68 @@
         <v>75</v>
       </c>
       <c r="G19">
-        <v>0.29499999999999998</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="H19">
-        <v>0.36399999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="K19">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20">
-        <v>0.26400000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="H20">
-        <v>0.34399999999999997</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
         <v>4</v>
       </c>
-      <c r="J20">
-        <v>9</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -6303,313 +6512,313 @@
         <v>75</v>
       </c>
       <c r="G21">
-        <v>0.30099999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="H21">
-        <v>0.40600000000000003</v>
+        <v>0.376</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
         <v>74</v>
       </c>
       <c r="G22">
-        <v>0.26500000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="H22">
-        <v>0.36699999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="G23">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H23">
+      <c r="G24">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H24">
         <v>0.36399999999999999</v>
       </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-      <c r="J23">
-        <v>31</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="H24">
-        <v>0.38500000000000001</v>
-      </c>
       <c r="I24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
       </c>
       <c r="G25">
-        <v>0.25700000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="H25">
-        <v>0.34599999999999997</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K25">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
       </c>
       <c r="G26">
-        <v>0.29499999999999998</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="H26">
-        <v>0.38500000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
       </c>
       <c r="G27">
-        <v>0.26400000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="H27">
-        <v>0.376</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>0.29899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="H28">
-        <v>0.36499999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I28">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J28">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="K28">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29">
-        <v>0.24399999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="H29">
-        <v>0.34499999999999997</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="I29">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="J29">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="K29">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
         <v>126</v>
@@ -6618,33 +6827,33 @@
         <v>74</v>
       </c>
       <c r="G30">
-        <v>0.25700000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H30">
-        <v>0.36399999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
         <v>126</v>
@@ -6653,65 +6862,65 @@
         <v>75</v>
       </c>
       <c r="G31">
-        <v>0.25600000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="H31">
-        <v>0.36399999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
         <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32">
-        <v>0.25600000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="H32">
-        <v>0.32600000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D33">
         <v>26</v>
@@ -6723,278 +6932,278 @@
         <v>75</v>
       </c>
       <c r="G33">
-        <v>0.27200000000000002</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="H33">
-        <v>0.39800000000000002</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J33">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K33">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
         <v>75</v>
       </c>
       <c r="G34">
+        <v>0.255</v>
+      </c>
+      <c r="H34">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>78</v>
+      </c>
+      <c r="K34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="I35">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36">
         <v>0.25</v>
-      </c>
-      <c r="H34">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="I34">
-        <v>16</v>
-      </c>
-      <c r="J34">
-        <v>27</v>
-      </c>
-      <c r="K34">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35">
-        <v>0.27</v>
-      </c>
-      <c r="H35">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="I35">
-        <v>9</v>
-      </c>
-      <c r="J35">
-        <v>24</v>
-      </c>
-      <c r="K35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36">
-        <v>0.26800000000000002</v>
       </c>
       <c r="H36">
         <v>0.36499999999999999</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J36">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H37">
+        <v>0.375</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>59</v>
+      </c>
+      <c r="K37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
       </c>
-      <c r="G37">
-        <v>0.312</v>
-      </c>
-      <c r="H37">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>9</v>
-      </c>
-      <c r="K37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38">
-        <v>24</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
-      </c>
       <c r="G38">
-        <v>0.216</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H38">
-        <v>0.34200000000000003</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J38">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D39">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
         <v>75</v>
       </c>
       <c r="G39">
-        <v>0.23599999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="H39">
-        <v>0.32100000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I39">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J39">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40">
-        <v>0.255</v>
+        <v>0.246</v>
       </c>
       <c r="H40">
-        <v>0.34499999999999997</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="I40">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J40">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="K40">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>156</v>
@@ -7003,348 +7212,348 @@
         <v>75</v>
       </c>
       <c r="G41">
-        <v>0.30199999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="H41">
-        <v>0.45300000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J41">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
         <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42">
-        <v>0.25</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H42">
-        <v>0.36499999999999999</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="I42">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K42">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
         <v>156</v>
       </c>
       <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>46</v>
+      </c>
+      <c r="K43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" t="s">
         <v>74</v>
       </c>
-      <c r="G43">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="H43">
-        <v>0.375</v>
-      </c>
-      <c r="I43">
-        <v>16</v>
-      </c>
-      <c r="J43">
-        <v>59</v>
-      </c>
-      <c r="K43">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" t="s">
-        <v>75</v>
-      </c>
       <c r="G44">
-        <v>0.27500000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H44">
-        <v>0.34499999999999997</v>
+        <v>0.376</v>
       </c>
       <c r="I44">
+        <v>22</v>
+      </c>
+      <c r="J44">
+        <v>94</v>
+      </c>
+      <c r="K44">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H45">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I45">
         <v>23</v>
       </c>
-      <c r="J44">
-        <v>65</v>
-      </c>
-      <c r="K44">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="H45">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="I45">
-        <v>7</v>
-      </c>
       <c r="J45">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="K45">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
         <v>132</v>
       </c>
       <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H46">
+        <v>0.377</v>
+      </c>
+      <c r="I46">
+        <v>23</v>
+      </c>
+      <c r="J46">
+        <v>85</v>
+      </c>
+      <c r="K46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47">
         <v>27</v>
       </c>
-      <c r="E46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="s">
         <v>74</v>
       </c>
-      <c r="G46">
-        <v>0.246</v>
-      </c>
-      <c r="H46">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="I46">
-        <v>8</v>
-      </c>
-      <c r="J46">
+      <c r="G47">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H47">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I47">
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <v>83</v>
+      </c>
+      <c r="K47">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48">
         <v>35</v>
       </c>
-      <c r="K46">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" t="s">
         <v>75</v>
-      </c>
-      <c r="G47">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="H47">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="I47">
-        <v>15</v>
-      </c>
-      <c r="J47">
-        <v>44</v>
-      </c>
-      <c r="K47">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" t="s">
-        <v>74</v>
       </c>
       <c r="G48">
         <v>0.26500000000000001</v>
       </c>
       <c r="H48">
-        <v>0.34799999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J48">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F49" t="s">
         <v>75</v>
       </c>
       <c r="G49">
-        <v>0.26400000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H49">
-        <v>0.33800000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J49">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
         <v>160</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50">
-        <v>0.27600000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H50">
-        <v>0.376</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I50">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J50">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K50">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
         <v>160</v>
@@ -7353,348 +7562,348 @@
         <v>74</v>
       </c>
       <c r="G51">
-        <v>0.30499999999999999</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H51">
-        <v>0.42299999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="I51">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K51">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D52">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
         <v>160</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52">
-        <v>0.27800000000000002</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H52">
-        <v>0.377</v>
+        <v>0.34</v>
       </c>
       <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>42</v>
+      </c>
+      <c r="K52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53">
         <v>23</v>
-      </c>
-      <c r="J52">
-        <v>85</v>
-      </c>
-      <c r="K52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53">
-        <v>27</v>
       </c>
       <c r="E53" t="s">
         <v>160</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53">
-        <v>0.28499999999999998</v>
+        <v>0.246</v>
       </c>
       <c r="H53">
-        <v>0.38300000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>16</v>
+      </c>
+      <c r="K53">
         <v>18</v>
       </c>
-      <c r="J53">
-        <v>83</v>
-      </c>
-      <c r="K53">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54">
-        <v>0.26500000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="H54">
-        <v>0.34599999999999997</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K54">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
       </c>
       <c r="G55">
-        <v>0.26800000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="H55">
-        <v>0.35599999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J55">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K55">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D56">
         <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56">
+        <v>0.248</v>
+      </c>
+      <c r="H56">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I56">
+        <v>14</v>
+      </c>
+      <c r="J56">
+        <v>49</v>
+      </c>
+      <c r="K56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" t="s">
         <v>75</v>
       </c>
-      <c r="G56">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H56">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="I56">
-        <v>11</v>
-      </c>
-      <c r="J56">
-        <v>54</v>
-      </c>
-      <c r="K56">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" t="s">
-        <v>74</v>
-      </c>
       <c r="G57">
-        <v>0.27600000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="H57">
-        <v>0.34300000000000003</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J57">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
         <v>74</v>
       </c>
       <c r="G58">
-        <v>0.24299999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H58">
-        <v>0.34</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J58">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D59">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
       </c>
       <c r="G59">
-        <v>0.246</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H59">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J59">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K59">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
         <v>74</v>
       </c>
       <c r="G60">
-        <v>0.216</v>
+        <v>0.245</v>
       </c>
       <c r="H60">
-        <v>0.35399999999999998</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J60">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D61">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
         <v>204</v>
@@ -7703,103 +7912,103 @@
         <v>75</v>
       </c>
       <c r="G61">
-        <v>0.26700000000000002</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="H61">
-        <v>0.36299999999999999</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J61">
         <v>35</v>
       </c>
       <c r="K61">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
         <v>204</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G62">
-        <v>0.248</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H62">
-        <v>0.33700000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="I62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J62">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
         <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G63">
-        <v>0.251</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="H63">
-        <v>0.32900000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J63">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D64">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
         <v>204</v>
@@ -7808,313 +8017,313 @@
         <v>74</v>
       </c>
       <c r="G64">
-        <v>0.27500000000000002</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="H64">
-        <v>0.33800000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="I64">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="K64">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
         <v>204</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G65">
-        <v>0.26300000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="H65">
-        <v>0.316</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I65">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="K65">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="D66">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
         <v>74</v>
       </c>
       <c r="G66">
-        <v>0.245</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="H66">
-        <v>0.34300000000000003</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J66">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="K66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="D67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G67">
-        <v>0.28699999999999998</v>
+        <v>0.249</v>
       </c>
       <c r="H67">
-        <v>0.35399999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J67">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="D68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F68" t="s">
         <v>75</v>
       </c>
       <c r="G68">
-        <v>0.28799999999999998</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H68">
-        <v>0.35599999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J68">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="K68">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F69" t="s">
         <v>74</v>
       </c>
       <c r="G69">
-        <v>0.26400000000000001</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H69">
-        <v>0.32600000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I69">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K69">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="D70">
+        <v>22</v>
+      </c>
+      <c r="E70" t="s">
+        <v>230</v>
+      </c>
+      <c r="F70" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70">
+        <v>0.32</v>
+      </c>
+      <c r="H70">
+        <v>0.443</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>81</v>
+      </c>
+      <c r="K70">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H71">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+      <c r="J71">
+        <v>65</v>
+      </c>
+      <c r="K71">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72">
         <v>27</v>
-      </c>
-      <c r="E70" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H70">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-      <c r="J70">
-        <v>24</v>
-      </c>
-      <c r="K70">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" t="s">
-        <v>203</v>
-      </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
-        <v>204</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71">
-        <v>0.246</v>
-      </c>
-      <c r="H71">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>17</v>
-      </c>
-      <c r="K71">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72">
-        <v>39</v>
       </c>
       <c r="E72" t="s">
         <v>230</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G72">
-        <v>0.27300000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="H72">
-        <v>0.36399999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="I72">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J72">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="K72">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
         <v>230</v>
@@ -8123,33 +8332,33 @@
         <v>74</v>
       </c>
       <c r="G73">
-        <v>0.249</v>
+        <v>0.245</v>
       </c>
       <c r="H73">
-        <v>0.32600000000000001</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="I73">
         <v>10</v>
       </c>
       <c r="J73">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E74" t="s">
         <v>230</v>
@@ -8158,33 +8367,33 @@
         <v>75</v>
       </c>
       <c r="G74">
-        <v>0.29099999999999998</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H74">
-        <v>0.34799999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="I74">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J74">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="K74">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E75" t="s">
         <v>230</v>
@@ -8193,33 +8402,33 @@
         <v>74</v>
       </c>
       <c r="G75">
-        <v>0.29099999999999998</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="H75">
-        <v>0.36499999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J75">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
         <v>230</v>
@@ -8228,68 +8437,68 @@
         <v>75</v>
       </c>
       <c r="G76">
-        <v>0.32</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="H76">
-        <v>0.443</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J76">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="K76">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D77">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
         <v>230</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77">
-        <v>0.28499999999999998</v>
+        <v>0.245</v>
       </c>
       <c r="H77">
-        <v>0.42599999999999999</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K77">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
         <v>230</v>
@@ -8298,243 +8507,243 @@
         <v>75</v>
       </c>
       <c r="G78">
-        <v>0.27400000000000002</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H78">
-        <v>0.436</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>50</v>
+      </c>
+      <c r="K78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79">
+        <v>0.307</v>
+      </c>
+      <c r="H79">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>26</v>
+      </c>
+      <c r="K79">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" t="s">
+        <v>249</v>
+      </c>
+      <c r="C80" t="s">
+        <v>250</v>
+      </c>
+      <c r="D80">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>270</v>
+      </c>
+      <c r="F80" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H80">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="I80">
+        <v>31</v>
+      </c>
+      <c r="J80">
+        <v>101</v>
+      </c>
+      <c r="K80">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81" t="s">
+        <v>271</v>
+      </c>
+      <c r="G81">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H81">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="I81">
+        <v>26</v>
+      </c>
+      <c r="J81">
+        <v>99</v>
+      </c>
+      <c r="K81">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82">
+        <v>0.25</v>
+      </c>
+      <c r="H82">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I82">
         <v>16</v>
       </c>
-      <c r="J78">
-        <v>59</v>
-      </c>
-      <c r="K78">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>218</v>
-      </c>
-      <c r="B79" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79">
-        <v>23</v>
-      </c>
-      <c r="E79" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" t="s">
-        <v>74</v>
-      </c>
-      <c r="G79">
-        <v>0.245</v>
-      </c>
-      <c r="H79">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="J79">
-        <v>46</v>
-      </c>
-      <c r="K79">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C80" t="s">
-        <v>239</v>
-      </c>
-      <c r="D80">
-        <v>26</v>
-      </c>
-      <c r="E80" t="s">
-        <v>230</v>
-      </c>
-      <c r="F80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H80">
-        <v>0.4</v>
-      </c>
-      <c r="I80">
-        <v>14</v>
-      </c>
-      <c r="J80">
-        <v>34</v>
-      </c>
-      <c r="K80">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" t="s">
-        <v>223</v>
-      </c>
-      <c r="C81" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81">
-        <v>32</v>
-      </c>
-      <c r="E81" t="s">
-        <v>230</v>
-      </c>
-      <c r="F81" t="s">
-        <v>74</v>
-      </c>
-      <c r="G81">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H81">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="I81">
-        <v>16</v>
-      </c>
-      <c r="J81">
-        <v>39</v>
-      </c>
-      <c r="K81">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C82" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82">
-        <v>28</v>
-      </c>
-      <c r="E82" t="s">
-        <v>230</v>
-      </c>
-      <c r="F82" t="s">
-        <v>75</v>
-      </c>
-      <c r="G82">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="H82">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="I82">
-        <v>6</v>
-      </c>
       <c r="J82">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K82">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="G83">
-        <v>0.245</v>
+        <v>0.248</v>
       </c>
       <c r="H83">
-        <v>0.32300000000000001</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J83">
+        <v>102</v>
+      </c>
+      <c r="K83">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
+        <v>270</v>
+      </c>
+      <c r="F84" t="s">
+        <v>271</v>
+      </c>
+      <c r="G84">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H84">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I84">
+        <v>15</v>
+      </c>
+      <c r="J84">
+        <v>36</v>
+      </c>
+      <c r="K84">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85">
         <v>32</v>
-      </c>
-      <c r="K83">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>228</v>
-      </c>
-      <c r="B84" t="s">
-        <v>229</v>
-      </c>
-      <c r="C84" t="s">
-        <v>242</v>
-      </c>
-      <c r="D84">
-        <v>32</v>
-      </c>
-      <c r="E84" t="s">
-        <v>230</v>
-      </c>
-      <c r="F84" t="s">
-        <v>75</v>
-      </c>
-      <c r="G84">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="H84">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-      <c r="J84">
-        <v>50</v>
-      </c>
-      <c r="K84">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>245</v>
-      </c>
-      <c r="B85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85" t="s">
-        <v>247</v>
-      </c>
-      <c r="D85">
-        <v>27</v>
       </c>
       <c r="E85" t="s">
         <v>270</v>
@@ -8543,33 +8752,33 @@
         <v>271</v>
       </c>
       <c r="G85">
-        <v>0.307</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H85">
-        <v>0.42199999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I85">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J85">
+        <v>53</v>
+      </c>
+      <c r="K85">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86">
         <v>26</v>
-      </c>
-      <c r="K85">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>248</v>
-      </c>
-      <c r="B86" t="s">
-        <v>249</v>
-      </c>
-      <c r="C86" t="s">
-        <v>250</v>
-      </c>
-      <c r="D86">
-        <v>24</v>
       </c>
       <c r="E86" t="s">
         <v>270</v>
@@ -8578,30 +8787,30 @@
         <v>272</v>
       </c>
       <c r="G86">
-        <v>0.27800000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H86">
-        <v>0.38700000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="I86">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J86">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C87" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D87">
         <v>23</v>
@@ -8610,179 +8819,179 @@
         <v>270</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G87">
-        <v>0.27500000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="H87">
-        <v>0.36899999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I87">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J87">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="K87">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D88">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
         <v>271</v>
       </c>
       <c r="G88">
-        <v>0.25</v>
+        <v>0.314</v>
       </c>
       <c r="H88">
-        <v>0.34100000000000003</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="I88">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J88">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K88">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="D89">
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F89" t="s">
         <v>272</v>
       </c>
       <c r="G89">
-        <v>0.248</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="H89">
-        <v>0.34499999999999997</v>
+        <v>0.309</v>
       </c>
       <c r="I89">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J89">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K89">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D90">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F90" t="s">
         <v>271</v>
       </c>
       <c r="G90">
-        <v>0.26200000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H90">
-        <v>0.32400000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="I90">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J90">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K90">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C91" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F91" t="s">
         <v>271</v>
       </c>
       <c r="G91">
-        <v>0.24299999999999999</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="H91">
-        <v>0.36499999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I91">
         <v>16</v>
       </c>
       <c r="J91">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F92" t="s">
         <v>272</v>
@@ -8791,65 +9000,65 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="H92">
-        <v>0.34699999999999998</v>
+        <v>0.315</v>
       </c>
       <c r="I92">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J92">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G93">
-        <v>0.27400000000000002</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="H93">
-        <v>0.36499999999999999</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K93">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C94" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D94">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
         <v>291</v>
@@ -8858,65 +9067,65 @@
         <v>271</v>
       </c>
       <c r="G94">
-        <v>0.314</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="H94">
-        <v>0.45900000000000002</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I94">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J94">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="K94">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D95">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
         <v>291</v>
       </c>
       <c r="F95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G95">
-        <v>0.25900000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H95">
-        <v>0.309</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I95">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J95">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K95">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96">
         <v>24</v>
@@ -8931,225 +9140,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H96">
-        <v>0.374</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I96">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J96">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="K96">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B97" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" t="s">
-        <v>251</v>
-      </c>
-      <c r="D97">
-        <v>38</v>
-      </c>
-      <c r="E97" t="s">
-        <v>291</v>
-      </c>
-      <c r="F97" t="s">
-        <v>271</v>
-      </c>
-      <c r="G97">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="H97">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I97">
-        <v>16</v>
-      </c>
-      <c r="J97">
-        <v>48</v>
-      </c>
-      <c r="K97">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>281</v>
-      </c>
-      <c r="B98" t="s">
-        <v>282</v>
-      </c>
-      <c r="C98" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98">
-        <v>24</v>
-      </c>
-      <c r="E98" t="s">
-        <v>291</v>
-      </c>
-      <c r="F98" t="s">
-        <v>272</v>
-      </c>
-      <c r="G98">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H98">
-        <v>0.315</v>
-      </c>
-      <c r="I98">
-        <v>14</v>
-      </c>
-      <c r="J98">
-        <v>43</v>
-      </c>
-      <c r="K98">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>283</v>
-      </c>
-      <c r="B99" t="s">
-        <v>284</v>
-      </c>
-      <c r="C99" t="s">
-        <v>266</v>
-      </c>
-      <c r="D99">
-        <v>22</v>
-      </c>
-      <c r="E99" t="s">
-        <v>291</v>
-      </c>
-      <c r="F99" t="s">
-        <v>271</v>
-      </c>
-      <c r="G99">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="H99">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>24</v>
-      </c>
-      <c r="K99">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>285</v>
-      </c>
-      <c r="B100" t="s">
-        <v>286</v>
-      </c>
-      <c r="C100" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100">
-        <v>26</v>
-      </c>
-      <c r="E100" t="s">
-        <v>291</v>
-      </c>
-      <c r="F100" t="s">
-        <v>271</v>
-      </c>
-      <c r="G100">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="H100">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="I100">
-        <v>6</v>
-      </c>
-      <c r="J100">
-        <v>35</v>
-      </c>
-      <c r="K100">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>287</v>
-      </c>
-      <c r="B101" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101" t="s">
-        <v>267</v>
-      </c>
-      <c r="D101">
-        <v>27</v>
-      </c>
-      <c r="E101" t="s">
-        <v>291</v>
-      </c>
-      <c r="F101" t="s">
-        <v>271</v>
-      </c>
-      <c r="G101">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H101">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I101">
-        <v>17</v>
-      </c>
-      <c r="J101">
-        <v>64</v>
-      </c>
-      <c r="K101">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" t="s">
-        <v>268</v>
-      </c>
-      <c r="D102">
-        <v>24</v>
-      </c>
-      <c r="E102" t="s">
-        <v>291</v>
-      </c>
-      <c r="F102" t="s">
-        <v>271</v>
-      </c>
-      <c r="G102">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H102">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="I102">
-        <v>11</v>
-      </c>
-      <c r="J102">
-        <v>37</v>
-      </c>
-      <c r="K102">
         <v>28</v>
       </c>
     </row>

--- a/players.xlsx
+++ b/players.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="216" windowWidth="19392" windowHeight="7716" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="216" windowWidth="19392" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="투수" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="422">
   <si>
     <t>first name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,718 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Boltimore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iannetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yankees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rangers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodgers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yankees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yankees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rangers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startigng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodgers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arodlis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raisel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anthony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tommy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clayton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hansel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carlos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeurys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bartolo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yimi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chi Chi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neftali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yovani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Justin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caleb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chasen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>James</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mashiro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nathan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micahel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jo-Jo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trevor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.J.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garrett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubaldo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mychal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Brad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,70 +760,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boltimore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Britton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Dylan </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bundy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Kevin </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gausman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mychal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Givens</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ubaldo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jimenez</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Darren </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O'Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tilman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Ashur </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tolliver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,1727 +796,915 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Vance </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Worley</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tyler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wright</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">R </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris </t>
+    <t>Richards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adcock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axelrod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lorenzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iglesias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cueto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeSclafani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosscup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rondon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hendricks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrieta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cippard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gilmartin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Familia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syndergaard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deGrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McCarthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avilan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberatore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hatcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garcia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicasio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilsinger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jansen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anderson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greinke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kershaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detwiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohlendorf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freeman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jackson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feliz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tolleson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kela</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gallardo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lewis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cotham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shreve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pazos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Severino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sabathia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eovaldi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pineda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gott</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santiago</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Davis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Manny</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Jonathan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> Machado</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Schoop</t>
-  </si>
-  <si>
-    <t>Adam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nolan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nolan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reimold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wieters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clevenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Steve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Clevenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimmy </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Paredes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jimmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navarro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Reynaldo </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Navarro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steve </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pearce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urrutia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Henry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Urrutia</t>
-  </si>
-  <si>
-    <t>Caleb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Joseph</t>
+    <t>Joseph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Parmelee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brennan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boesch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamilton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schumaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bourgeois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eugenio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suarez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frazier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Votto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denorfia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jorge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miguel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coghlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rizzo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fowler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Porcello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castillo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kelly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pablo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandoval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramirez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bogaerts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dustin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedroia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jackie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bradley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Otiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rollins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guerrero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Van Slyke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yasiel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pederson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alberto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruggiano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corporan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elvis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Josh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeShields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chirinos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rougned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beltre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moreland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fielder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shinsoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stephen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacoby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Didi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellsbury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregorius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McCann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gardner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beltran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teixeira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joyce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taylor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murphy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Featherston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calhoun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gialvotella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pujols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerardo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De Aza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delmon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Janish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flaherty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alvarez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dariel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alvarez</t>
-  </si>
-  <si>
-    <t>Travis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Snider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flaherty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Janish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delmon </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>De Aza</t>
-  </si>
-  <si>
-    <t>Gerardo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parra</t>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pitcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">L </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Albert </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pujols</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">David </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calhoun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnny </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gialvotella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Erick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ayber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iannetta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">David </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Murphy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taylor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Featherston</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joyce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teixeira</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregory </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bird</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beltran</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gardner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McCann</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Headley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Didi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gregorius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jacoby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ellsbury</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stephen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yankees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shin-soo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rangers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prince</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fielder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moreland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrian </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beltre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rougned </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Odor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinson </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chirinos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeShields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Josh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamilton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elvis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Corporan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alberto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Justin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruggiano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ellis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrian </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pederson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yasiel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Puig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoot </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Van Slyke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guerrero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimmy </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rollins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utely</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anderson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dodgers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Otiz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jackie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bradley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mookie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Betts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dustin </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pedroia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xander</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bogaerts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramirez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pablo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sandoval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandy </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kelly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rusney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Castillo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Porcello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dexter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fowler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anthony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rizzo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bryant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coghlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miguel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Montero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jorge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Russell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Denorfia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Castro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Votto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frazier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eugenio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suarez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bruce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schumaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bourgeois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Billy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamilton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brennan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boesch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Garrett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Richards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heaney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.J.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wilson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santiago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huston</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Street</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trevor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gott</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Latos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jo-Jo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pitcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micahel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pineda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathan </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mashiro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tanaka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sabathia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eovaldi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Luis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Severino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whitley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>James</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pazos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chasen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shreve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caleb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cotham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yankees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Justin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yankees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lewis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yovani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gallardo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Martin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kela</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Shawn </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tolleson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wandy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Martinez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neftali</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feliz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chi Chi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Luke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jackson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freeman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ohlendorf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detwiler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rangers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startigng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clayton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kershaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greinke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anderson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kenley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jansen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bilsinger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pedro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Juan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nicasio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yimi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Garcia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hatcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberatore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avilan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brandon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McCarthy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dodgers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jacob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deGrom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harvey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Syndergaard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bartolo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeurys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Familia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Niese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gilmartin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Torres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hansel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Logan </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tyler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cippard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Torres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrieta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyle </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hendricks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hammel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rondon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Travis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clayton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Richards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tommy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hunter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosscup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anthony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeSclafani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johnny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cueto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raisel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iglesias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jumbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diaz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arodlis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michael</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lorenzen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dylan </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axelrod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nate </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adcock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2230,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2249,57 +2113,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>2.68</v>
@@ -2319,25 +2183,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2.98</v>
@@ -2357,25 +2221,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>3.79</v>
@@ -2395,25 +2259,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>4.32</v>
@@ -2433,25 +2297,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3.85</v>
@@ -2471,25 +2335,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>4.3499999999999996</v>
@@ -2509,25 +2373,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>2.3199999999999998</v>
@@ -2547,25 +2411,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>4.2300000000000004</v>
@@ -2585,25 +2449,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
       </c>
       <c r="D10">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>3.59</v>
@@ -2623,25 +2487,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>1.64</v>
@@ -2661,25 +2525,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>4.54</v>
@@ -2699,25 +2563,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>3.54</v>
@@ -2737,25 +2601,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <v>3.65</v>
@@ -2775,25 +2639,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H15">
         <v>3.49</v>
@@ -2813,25 +2677,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <v>4.24</v>
@@ -2851,25 +2715,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H17">
         <v>4.28</v>
@@ -2889,25 +2753,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c r="H18">
         <v>2.75</v>
@@ -2927,25 +2791,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H19">
         <v>3.12</v>
@@ -2965,25 +2829,25 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H20">
         <v>2.98</v>
@@ -3003,25 +2867,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H21">
         <v>3.68</v>
@@ -3041,25 +2905,25 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H22">
         <v>4.37</v>
@@ -3079,25 +2943,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H23">
         <v>4.2</v>
@@ -3117,25 +2981,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>1.5</v>
@@ -3155,25 +3019,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>2.04</v>
@@ -3193,25 +3057,25 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H26">
         <v>4.7300000000000004</v>
@@ -3231,25 +3095,25 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D27">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>337</v>
+        <v>94</v>
       </c>
       <c r="H27">
         <v>2.89</v>
@@ -3269,25 +3133,25 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>338</v>
+        <v>95</v>
       </c>
       <c r="H28">
         <v>3.15</v>
@@ -3307,25 +3171,25 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>338</v>
+        <v>95</v>
       </c>
       <c r="H29">
         <v>3.85</v>
@@ -3345,25 +3209,25 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>3.8</v>
@@ -3383,25 +3247,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>3.46</v>
@@ -3421,25 +3285,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H32">
         <v>4.97</v>
@@ -3459,25 +3323,25 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D33">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H33">
         <v>4.66</v>
@@ -3497,25 +3361,25 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H34">
         <v>3.42</v>
@@ -3535,25 +3399,25 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>368</v>
+        <v>98</v>
       </c>
       <c r="H35">
         <v>4.1100000000000003</v>
@@ -3573,25 +3437,25 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H36">
         <v>3.85</v>
@@ -3611,25 +3475,25 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H37">
         <v>3.66</v>
@@ -3649,25 +3513,25 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>350</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="C38" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="H38">
         <v>2.99</v>
@@ -3687,25 +3551,25 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D39">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H39">
         <v>3.16</v>
@@ -3725,25 +3589,25 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="C40" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>3.54</v>
@@ -3763,25 +3627,25 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>356</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H41">
         <v>3.75</v>
@@ -3801,25 +3665,25 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H42">
         <v>3.96</v>
@@ -3839,25 +3703,25 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H43">
         <v>2.65</v>
@@ -3877,25 +3741,25 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H44">
         <v>2.44</v>
@@ -3915,25 +3779,25 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>364</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D45">
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H45">
         <v>2.38</v>
@@ -3953,25 +3817,25 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>364</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H46">
         <v>2.65</v>
@@ -3991,25 +3855,25 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H47">
         <v>2.13</v>
@@ -4029,25 +3893,25 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>372</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>373</v>
+        <v>240</v>
       </c>
       <c r="C48" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H48">
         <v>1.66</v>
@@ -4067,25 +3931,25 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>374</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>375</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H49">
         <v>3.89</v>
@@ -4105,25 +3969,25 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="H50">
         <v>4.75</v>
@@ -4143,25 +4007,25 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>379</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D51">
         <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H51">
         <v>4.13</v>
@@ -4181,25 +4045,25 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>380</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>381</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D52">
         <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H52">
         <v>3.53</v>
@@ -4219,25 +4083,25 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>382</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D53">
         <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H53">
         <v>3.74</v>
@@ -4257,25 +4121,25 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H54">
         <v>3.85</v>
@@ -4295,25 +4159,25 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>386</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D55">
         <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H55">
         <v>3.41</v>
@@ -4333,25 +4197,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D56">
         <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H56">
         <v>3.49</v>
@@ -4371,25 +4235,25 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>390</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>391</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D57">
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H57">
         <v>3.53</v>
@@ -4409,25 +4273,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D58">
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H58">
         <v>2.85</v>
@@ -4447,25 +4311,25 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>325</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>394</v>
+        <v>229</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D59">
         <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H59">
         <v>2.4700000000000002</v>
@@ -4485,25 +4349,25 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>395</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="C60" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H60">
         <v>2.4900000000000002</v>
@@ -4523,25 +4387,25 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>399</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>400</v>
+        <v>227</v>
       </c>
       <c r="C61" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D61">
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H61">
         <v>2.54</v>
@@ -4561,25 +4425,25 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="C62" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D62">
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H62">
         <v>2.71</v>
@@ -4599,25 +4463,25 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>403</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>404</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D63">
         <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H63">
         <v>3.24</v>
@@ -4637,25 +4501,25 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D64">
         <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H64">
         <v>4.16</v>
@@ -4675,25 +4539,25 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>407</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>408</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D65">
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F65" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c r="H65">
         <v>1.85</v>
@@ -4713,25 +4577,25 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>409</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>410</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D66">
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F66" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H66">
         <v>2.14</v>
@@ -4751,25 +4615,25 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D67">
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H67">
         <v>2.95</v>
@@ -4789,25 +4653,25 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>413</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>414</v>
+        <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D68">
         <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H68">
         <v>3.34</v>
@@ -4827,25 +4691,25 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>415</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>416</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D69">
         <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F69" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H69">
         <v>3.63</v>
@@ -4865,25 +4729,25 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>417</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>418</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D70">
         <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F70" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H70">
         <v>3.51</v>
@@ -4903,25 +4767,25 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>419</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>420</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D71">
         <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F71" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H71">
         <v>2.23</v>
@@ -4941,25 +4805,25 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>421</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>422</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D72">
         <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H72">
         <v>2.46</v>
@@ -4979,25 +4843,25 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>423</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F73" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H73">
         <v>2.85</v>
@@ -5017,25 +4881,25 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>425</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="C74" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>427</v>
+        <v>102</v>
       </c>
       <c r="F74" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H74">
         <v>3.46</v>
@@ -5055,25 +4919,25 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>428</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>429</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G75" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H75">
         <v>1.77</v>
@@ -5093,25 +4957,25 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>409</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>430</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G76" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H76">
         <v>3.46</v>
@@ -5131,25 +4995,25 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>431</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>432</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H77">
         <v>3.95</v>
@@ -5169,25 +5033,25 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D78">
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H78">
         <v>3.34</v>
@@ -5207,25 +5071,25 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>434</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>435</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D79">
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c r="H79">
         <v>1.67</v>
@@ -5245,25 +5109,25 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>436</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>437</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D80">
         <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H80">
         <v>2.31</v>
@@ -5283,25 +5147,25 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>438</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D81">
         <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H81">
         <v>3.75</v>
@@ -5321,25 +5185,25 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>439</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>440</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D82">
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G82" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H82">
         <v>3.16</v>
@@ -5359,25 +5223,25 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>441</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>442</v>
+        <v>207</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D83">
         <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H83">
         <v>3.43</v>
@@ -5397,25 +5261,25 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>443</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>444</v>
+        <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D84">
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H84">
         <v>3.03</v>
@@ -5435,25 +5299,25 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>445</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>446</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D85">
         <v>30</v>
       </c>
       <c r="E85" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F85" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H85">
         <v>4.51</v>
@@ -5473,25 +5337,25 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>448</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D86">
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H86">
         <v>2.62</v>
@@ -5511,25 +5375,25 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D87">
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="H87">
         <v>5.93</v>
@@ -5549,25 +5413,25 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>450</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D88">
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F88" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H88">
         <v>4.68</v>
@@ -5587,25 +5451,25 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>451</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>452</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D89">
         <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H89">
         <v>3.85</v>
@@ -5625,25 +5489,25 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>453</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>454</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D90">
         <v>23</v>
       </c>
       <c r="E90" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F90" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G90" t="s">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="H90">
         <v>1.63</v>
@@ -5663,25 +5527,25 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>455</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>456</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D91">
         <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G91" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="H91">
         <v>4.16</v>
@@ -5701,25 +5565,25 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>457</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>458</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D92">
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F92" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G92" t="s">
-        <v>338</v>
+        <v>95</v>
       </c>
       <c r="H92">
         <v>3.85</v>
@@ -5739,25 +5603,25 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>459</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>460</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="D93">
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F93" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G93" t="s">
-        <v>338</v>
+        <v>95</v>
       </c>
       <c r="H93">
         <v>2.76</v>
@@ -5786,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5800,51 +5664,51 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>0.28599999999999998</v>
@@ -5864,22 +5728,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>0.248</v>
@@ -5899,22 +5763,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>0.312</v>
@@ -5934,22 +5798,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>0.245</v>
@@ -5969,22 +5833,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0.26700000000000002</v>
@@ -6004,22 +5868,22 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>0.26400000000000001</v>
@@ -6039,22 +5903,22 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>0.26400000000000001</v>
@@ -6074,22 +5938,22 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0.26800000000000002</v>
@@ -6109,22 +5973,22 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>0.27800000000000002</v>
@@ -6144,22 +6008,22 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>0.26500000000000001</v>
@@ -6179,22 +6043,22 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>0.26300000000000001</v>
@@ -6214,22 +6078,22 @@
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0.29499999999999998</v>
@@ -6249,22 +6113,22 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>0.26400000000000001</v>
@@ -6284,22 +6148,22 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>420</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>0.30099999999999999</v>
@@ -6319,22 +6183,22 @@
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>418</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>0.26500000000000001</v>
@@ -6354,22 +6218,22 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>0.25800000000000001</v>
@@ -6389,22 +6253,22 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>0.26400000000000001</v>
@@ -6424,22 +6288,22 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>413</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>0.25700000000000001</v>
@@ -6459,22 +6323,22 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>0.29499999999999998</v>
@@ -6492,24 +6356,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>419</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>0.26400000000000001</v>
@@ -6527,24 +6391,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>0.29899999999999999</v>
@@ -6562,24 +6426,24 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>0.24399999999999999</v>
@@ -6597,24 +6461,24 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <v>0.25700000000000001</v>
@@ -6632,24 +6496,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>402</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>0.25600000000000001</v>
@@ -6667,24 +6531,24 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>401</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>0.25600000000000001</v>
@@ -6702,24 +6566,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>0.27200000000000002</v>
@@ -6737,24 +6601,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>0.25</v>
@@ -6772,24 +6636,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>399</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>0.27</v>
@@ -6807,24 +6671,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>0.26800000000000002</v>
@@ -6842,24 +6706,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>396</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>0.312</v>
@@ -6877,24 +6741,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G32">
         <v>0.216</v>
@@ -6912,24 +6776,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>0.23599999999999999</v>
@@ -6947,24 +6811,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>392</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>393</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>0.255</v>
@@ -6982,24 +6846,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>391</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>0.30199999999999999</v>
@@ -7017,24 +6881,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>0.25</v>
@@ -7052,24 +6916,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D37">
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>0.29499999999999998</v>
@@ -7087,24 +6951,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D38">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>0.27500000000000002</v>
@@ -7122,24 +6986,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>0.29499999999999998</v>
@@ -7157,24 +7021,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D40">
         <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>0.246</v>
@@ -7192,24 +7056,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D41">
         <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>0.23200000000000001</v>
@@ -7227,24 +7091,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G42">
         <v>0.26500000000000001</v>
@@ -7262,24 +7126,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>379</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D43">
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>0.26400000000000001</v>
@@ -7297,24 +7161,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G44">
         <v>0.27600000000000002</v>
@@ -7332,24 +7196,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G45">
         <v>0.30499999999999999</v>
@@ -7367,24 +7231,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>0.27800000000000002</v>
@@ -7402,24 +7266,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D47">
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G47">
         <v>0.28499999999999998</v>
@@ -7437,24 +7301,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D48">
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>0.26500000000000001</v>
@@ -7472,24 +7336,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>0.26800000000000002</v>
@@ -7507,24 +7371,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D50">
         <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G50">
         <v>0.27500000000000002</v>
@@ -7542,24 +7406,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D51">
         <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>0.27600000000000002</v>
@@ -7577,24 +7441,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G52">
         <v>0.24299999999999999</v>
@@ -7612,24 +7476,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D53">
         <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>0.246</v>
@@ -7647,24 +7511,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G54">
         <v>0.216</v>
@@ -7682,24 +7546,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G55">
         <v>0.26700000000000002</v>
@@ -7717,24 +7581,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G56">
         <v>0.248</v>
@@ -7752,24 +7616,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>356</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G57">
         <v>0.251</v>
@@ -7787,24 +7651,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D58">
         <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G58">
         <v>0.27500000000000002</v>
@@ -7822,24 +7686,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D59">
         <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G59">
         <v>0.26300000000000001</v>
@@ -7857,24 +7721,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D60">
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G60">
         <v>0.245</v>
@@ -7892,24 +7756,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D61">
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G61">
         <v>0.28699999999999998</v>
@@ -7927,24 +7791,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D62">
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G62">
         <v>0.28799999999999998</v>
@@ -7962,24 +7826,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D63">
         <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G63">
         <v>0.26400000000000001</v>
@@ -7997,24 +7861,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>345</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D64">
         <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G64">
         <v>0.23499999999999999</v>
@@ -8032,24 +7896,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D65">
         <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G65">
         <v>0.246</v>
@@ -8067,24 +7931,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>344</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="D66">
         <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G66">
         <v>0.27300000000000002</v>
@@ -8102,24 +7966,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>341</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="D67">
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G67">
         <v>0.249</v>
@@ -8137,24 +8001,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="D68">
         <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G68">
         <v>0.29099999999999998</v>
@@ -8172,24 +8036,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="D69">
         <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G69">
         <v>0.29099999999999998</v>
@@ -8207,24 +8071,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>335</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G70">
         <v>0.32</v>
@@ -8242,24 +8106,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="D71">
         <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G71">
         <v>0.28499999999999998</v>
@@ -8277,24 +8141,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="D72">
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G72">
         <v>0.27400000000000002</v>
@@ -8312,24 +8176,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>330</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G73">
         <v>0.245</v>
@@ -8347,24 +8211,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="D74">
         <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G74">
         <v>0.26500000000000001</v>
@@ -8382,24 +8246,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="D75">
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G75">
         <v>0.25800000000000001</v>
@@ -8417,24 +8281,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G76">
         <v>0.26700000000000002</v>
@@ -8452,24 +8316,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="D77">
         <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G77">
         <v>0.245</v>
@@ -8487,24 +8351,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>319</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="D78">
         <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G78">
         <v>0.27100000000000002</v>
@@ -8522,24 +8386,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="D79">
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G79">
         <v>0.307</v>
@@ -8557,24 +8421,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="D80">
         <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G80">
         <v>0.27800000000000002</v>
@@ -8592,24 +8456,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="B81" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="D81">
         <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G81">
         <v>0.27500000000000002</v>
@@ -8627,24 +8491,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="C82" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="D82">
         <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G82">
         <v>0.25</v>
@@ -8662,24 +8526,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="D83">
         <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G83">
         <v>0.248</v>
@@ -8697,24 +8561,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C84" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="D84">
         <v>36</v>
       </c>
       <c r="E84" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G84">
         <v>0.26200000000000001</v>
@@ -8732,24 +8596,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="D85">
         <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G85">
         <v>0.24299999999999999</v>
@@ -8767,24 +8631,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="D86">
         <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G86">
         <v>0.26500000000000001</v>
@@ -8802,24 +8666,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="D87">
         <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G87">
         <v>0.27400000000000002</v>
@@ -8837,24 +8701,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="D88">
         <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F88" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G88">
         <v>0.314</v>
@@ -8872,24 +8736,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="D89">
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G89">
         <v>0.25900000000000001</v>
@@ -8907,24 +8771,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="D90">
         <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F90" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G90">
         <v>0.28000000000000003</v>
@@ -8942,24 +8806,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C91" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="D91">
         <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G91">
         <v>0.27400000000000002</v>
@@ -8977,24 +8841,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="D92">
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F92" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G92">
         <v>0.26500000000000001</v>
@@ -9014,22 +8878,22 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C93" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="D93">
         <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F93" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G93">
         <v>0.23400000000000001</v>
@@ -9049,22 +8913,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="D94">
         <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G94">
         <v>0.27700000000000002</v>
@@ -9084,22 +8948,22 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="D95">
         <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F95" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G95">
         <v>0.26500000000000001</v>
@@ -9119,22 +8983,22 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="D96">
         <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="F96" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G96">
         <v>0.28000000000000003</v>

--- a/players.xlsx
+++ b/players.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="216" windowWidth="19392" windowHeight="7716"/>
+    <workbookView xWindow="600" yWindow="216" windowWidth="19392" windowHeight="7716" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="투수" sheetId="2" r:id="rId1"/>
@@ -2094,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -5650,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/players.xlsx
+++ b/players.xlsx
@@ -432,1279 +432,1279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Nate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arodlis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raisel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anthony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tommy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clayton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hansel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carlos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeurys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bartolo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yimi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chi Chi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neftali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yovani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Justin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caleb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chasen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>James</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mashiro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nathan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micahel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jo-Jo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trevor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.J.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garrett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubaldo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mychal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Britton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bundy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gausman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Givens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jimenez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O'Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tolliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wilson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adcock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axelrod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lorenzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iglesias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cueto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeSclafani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosscup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rondon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hendricks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrieta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cippard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gilmartin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Familia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syndergaard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deGrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McCarthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avilan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberatore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hatcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garcia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicasio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilsinger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jansen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anderson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greinke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kershaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detwiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohlendorf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freeman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jackson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feliz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tolleson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kela</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gallardo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lewis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cotham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shreve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pazos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Severino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sabathia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eovaldi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pineda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gott</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santiago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Davis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jonathan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nolan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wieters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clevenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paredes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jimmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navarro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynaldo </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urrutia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Henry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joseph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parmelee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brennan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boesch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamilton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schumaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bourgeois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eugenio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suarez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frazier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Votto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denorfia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jorge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miguel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coghlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rizzo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fowler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Porcello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castillo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kelly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pablo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandoval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramirez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bogaerts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dustin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedroia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jackie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bradley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Otiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rollins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guerrero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Van Slyke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yasiel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pederson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alberto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruggiano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corporan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elvis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Josh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeShields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chirinos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rougned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beltre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moreland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fielder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stephen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacoby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Didi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellsbury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregorius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McCann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gardner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beltran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teixeira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joyce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taylor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murphy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Featherston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calhoun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gialvotella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pujols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerardo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De Aza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delmon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Janish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flaherty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alvarez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dariel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shinsoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Choo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michael</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arodlis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jumbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raisel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johnny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anthony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tommy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clayton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pedro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Travis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tyler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Logan </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hansel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeurys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bartolo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jacob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brandon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Luis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yimi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Juan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kenley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Luke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chi Chi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neftali</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wandy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Martin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yovani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Justin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caleb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chasen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>James</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mashiro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nathan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micahel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jo-Jo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trevor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huston</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.J.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Garrett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wright</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ashur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Darren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubaldo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mychal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Britton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bundy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gausman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Givens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jimenez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O'Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tilman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tolliver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wilson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Richards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heaney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adcock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axelrod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lorenzen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diaz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iglesias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cueto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeSclafani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosscup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hunter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rondon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hammel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hendricks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrieta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Torres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cippard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gilmartin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Niese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Familia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Syndergaard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harvey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deGrom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McCarthy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avilan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberatore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hatcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Garcia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nicasio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bilsinger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jansen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anderson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greinke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kershaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detwiler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ohlendorf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freeman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jackson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feliz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Martinez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tolleson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kela</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gallardo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lewis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cotham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shreve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pazos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whitley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Severino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sabathia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tanaka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eovaldi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pineda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Latos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gott</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Street</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santiago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Davis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jonathan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Machado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schoop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jones</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nolan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reimold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wieters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clevenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paredes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jimmy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Navarro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynaldo </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pearce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Urrutia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Henry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joseph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parmelee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brennan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boesch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamilton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Billy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schumaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bourgeois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bruce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eugenio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suarez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frazier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Votto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Castro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Denorfia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Russell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jorge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miguel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Montero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coghlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bryant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rizzo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dexter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fowler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Porcello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rusney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Castillo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kelly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sandy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pablo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sandoval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramirez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bogaerts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xander</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dustin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pedroia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Betts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mookie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jackie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bradley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Otiz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>David</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utely</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rollins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guerrero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Van Slyke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yasiel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Puig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pederson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adrian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ellis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alberto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruggiano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Corporan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elvis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Josh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeShields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chirinos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinson </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rougned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Odor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beltre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andrian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moreland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fielder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prince</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shinsoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stephen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jacoby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Didi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ellsbury</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gregorius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Headley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McCann</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gardner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beltran</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bird</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gregory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teixeira</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joyce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taylor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Murphy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Featherston</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ayber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Erick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calhoun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gialvotella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Albert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pujols</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gerardo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>De Aza</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Young</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delmon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Janish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ryan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flaherty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alvarez</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dariel</t>
+    <t>Machado</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -2297,10 +2297,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
         <v>88</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
         <v>88</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
         <v>88</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
         <v>88</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
         <v>88</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
         <v>88</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
         <v>88</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
         <v>88</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
         <v>88</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" t="s">
         <v>88</v>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
         <v>88</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s">
         <v>88</v>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -3399,10 +3399,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
         <v>88</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
         <v>88</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
         <v>88</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s">
         <v>88</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
         <v>88</v>
@@ -3589,10 +3589,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
         <v>88</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
         <v>88</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
         <v>88</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s">
         <v>88</v>
@@ -3893,10 +3893,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
         <v>88</v>
@@ -3931,10 +3931,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49" t="s">
         <v>88</v>
@@ -3969,10 +3969,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
         <v>88</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
         <v>88</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
         <v>88</v>
@@ -4121,10 +4121,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
         <v>88</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
         <v>88</v>
@@ -4197,10 +4197,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
         <v>88</v>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C57" t="s">
         <v>88</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
         <v>88</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" t="s">
         <v>88</v>
@@ -4349,10 +4349,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
         <v>88</v>
@@ -4387,10 +4387,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C61" t="s">
         <v>88</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
         <v>88</v>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
         <v>88</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
         <v>88</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
         <v>88</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
         <v>88</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
         <v>88</v>
@@ -4653,10 +4653,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
         <v>88</v>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
         <v>88</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
         <v>88</v>
@@ -4767,10 +4767,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
         <v>88</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
         <v>88</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
@@ -4881,10 +4881,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
         <v>88</v>
@@ -5033,10 +5033,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
         <v>88</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
         <v>88</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" t="s">
         <v>88</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
         <v>88</v>
@@ -5223,10 +5223,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
         <v>88</v>
@@ -5261,10 +5261,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
         <v>88</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
         <v>88</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
         <v>88</v>
@@ -5451,10 +5451,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
         <v>88</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
@@ -5527,10 +5527,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
         <v>88</v>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
         <v>88</v>
@@ -5603,10 +5603,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
         <v>88</v>
@@ -5650,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5693,10 +5693,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5728,10 +5728,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
         <v>272</v>
-      </c>
-      <c r="B4" t="s">
-        <v>274</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -6043,10 +6043,10 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -6078,10 +6078,10 @@
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -6113,10 +6113,10 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -6148,10 +6148,10 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -6253,10 +6253,10 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -6358,10 +6358,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -6428,10 +6428,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -6463,10 +6463,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -6498,10 +6498,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -6533,10 +6533,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
@@ -6708,10 +6708,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -6778,10 +6778,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
@@ -6813,10 +6813,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -6848,10 +6848,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -6918,10 +6918,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -6953,10 +6953,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -7023,10 +7023,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -7058,10 +7058,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
@@ -7093,10 +7093,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
@@ -7163,10 +7163,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
@@ -7198,10 +7198,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -7233,10 +7233,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -7268,10 +7268,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
@@ -7303,10 +7303,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
         <v>47</v>
@@ -7338,10 +7338,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -7373,10 +7373,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -7408,10 +7408,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
@@ -7443,10 +7443,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
         <v>43</v>
@@ -7478,10 +7478,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -7548,10 +7548,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -7583,10 +7583,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -7618,10 +7618,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
         <v>45</v>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C59" t="s">
         <v>48</v>
@@ -7723,10 +7723,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
@@ -7758,10 +7758,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C61" t="s">
         <v>51</v>
@@ -7793,10 +7793,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
@@ -7828,10 +7828,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B63" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s">
         <v>47</v>
@@ -7863,10 +7863,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
@@ -7898,10 +7898,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
         <v>47</v>
@@ -7933,10 +7933,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C66" t="s">
         <v>59</v>
@@ -7968,10 +7968,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C67" t="s">
         <v>60</v>
@@ -8003,10 +8003,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
         <v>61</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
@@ -8073,10 +8073,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C71" t="s">
         <v>65</v>
@@ -8143,10 +8143,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C72" t="s">
         <v>66</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C73" t="s">
         <v>64</v>
@@ -8213,10 +8213,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
         <v>67</v>
@@ -8248,10 +8248,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -8283,10 +8283,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
         <v>65</v>
@@ -8318,10 +8318,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C77" t="s">
         <v>69</v>
@@ -8353,10 +8353,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
         <v>70</v>
@@ -8388,10 +8388,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C79" t="s">
         <v>73</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C80" t="s">
         <v>74</v>
@@ -8458,10 +8458,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C81" t="s">
         <v>75</v>
@@ -8493,10 +8493,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
@@ -8528,10 +8528,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
         <v>73</v>
@@ -8563,10 +8563,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C84" t="s">
         <v>77</v>
@@ -8598,10 +8598,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
         <v>78</v>
@@ -8633,10 +8633,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C86" t="s">
         <v>79</v>
@@ -8668,10 +8668,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C87" t="s">
         <v>80</v>
@@ -8703,10 +8703,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s">
         <v>80</v>
@@ -8738,10 +8738,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s">
         <v>84</v>
@@ -8773,10 +8773,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C90" t="s">
         <v>76</v>
@@ -8808,10 +8808,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
         <v>75</v>
@@ -8843,10 +8843,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C92" t="s">
         <v>73</v>
@@ -8878,10 +8878,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C93" t="s">
         <v>77</v>
@@ -8913,10 +8913,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C94" t="s">
         <v>77</v>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
         <v>78</v>
@@ -8983,10 +8983,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
         <v>79</v>
